--- a/data/dataframe/10038.xlsx
+++ b/data/dataframe/10038.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C9A04D-434B-0644-9ABB-F4B5FF0953E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>col</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="18">
   <si>
     <t>X</t>
   </si>
@@ -66,28 +72,20 @@
   <si>
     <t>NC</t>
   </si>
+  <si>
+    <t>exp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -95,16 +93,25 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,44 +153,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,24 +184,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,7 +464,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -430,7 +483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -460,7 +513,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -486,7 +539,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -512,7 +565,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -538,7 +591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -564,7 +617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -590,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -616,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -642,7 +695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,9 +734,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -700,7 +759,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -719,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -875,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,9 +1025,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -982,7 +1047,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1001,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,87 +1317,85 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.17188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.17188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.17188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.17188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.17188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.17188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.17188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.17188" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.17188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.17188" style="1" customWidth="1"/>
-    <col min="14" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="13" width="8.1640625" style="1" customWidth="1"/>
+    <col min="14" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="4">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="5">
-        <v>0.00013</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="C2" s="5">
         <v>2.5</v>
@@ -1340,23 +1403,23 @@
       <c r="D2" s="6">
         <v>318</v>
       </c>
-      <c r="E2" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="7">
-        <v>17</v>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
       </c>
       <c r="J2" s="5">
-        <v>0.0018</v>
+        <v>1.8E-3</v>
       </c>
       <c r="K2" s="5">
         <v>28.4</v>
@@ -1368,12 +1431,12 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>13</v>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>0.00018</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -1381,23 +1444,23 @@
       <c r="D3" s="6">
         <v>318</v>
       </c>
-      <c r="E3" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="7">
-        <v>17</v>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>0.0048</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="K3" s="5">
         <v>10.5</v>
@@ -1409,12 +1472,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>13</v>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="5">
-        <v>0.00013</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="C4" s="5">
         <v>7</v>
@@ -1422,26 +1485,26 @@
       <c r="D4" s="6">
         <v>318</v>
       </c>
-      <c r="E4" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="7">
-        <v>17</v>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>0.0059</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="K4" s="5">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L4" s="5">
         <v>11.2</v>
@@ -1450,12 +1513,12 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>13</v>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C5" s="5">
         <v>7</v>
@@ -1463,23 +1526,23 @@
       <c r="D5" s="6">
         <v>318</v>
       </c>
-      <c r="E5" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="7">
-        <v>17</v>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
       </c>
       <c r="J5" s="5">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K5" s="5">
         <v>8.5</v>
@@ -1491,12 +1554,12 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>13</v>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="5">
-        <v>0.00032</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="C6" s="5">
         <v>12</v>
@@ -1504,26 +1567,26 @@
       <c r="D6" s="6">
         <v>318</v>
       </c>
-      <c r="E6" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>17</v>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>0.0072</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="K6" s="5">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L6" s="5">
         <v>5.8</v>
@@ -1532,12 +1595,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>13</v>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="5">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C7" s="5">
         <v>12</v>
@@ -1545,26 +1608,26 @@
       <c r="D7" s="6">
         <v>318</v>
       </c>
-      <c r="E7" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>17</v>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
       </c>
       <c r="J7" s="5">
-        <v>0.0041</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="K7" s="5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L7" s="5">
         <v>6.9</v>
@@ -1573,12 +1636,12 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>13</v>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="5">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C8" s="5">
         <v>12</v>
@@ -1586,26 +1649,26 @@
       <c r="D8" s="6">
         <v>318</v>
       </c>
-      <c r="E8" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s" s="7">
-        <v>17</v>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>1</v>
       </c>
       <c r="J8" s="5">
-        <v>0.0014</v>
+        <v>1.4E-3</v>
       </c>
       <c r="K8" s="5">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="L8" s="5">
         <v>26.9</v>
@@ -1614,12 +1677,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>13</v>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="5">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C9" s="5">
         <v>18</v>
@@ -1627,23 +1690,23 @@
       <c r="D9" s="6">
         <v>318</v>
       </c>
-      <c r="E9" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="7">
-        <v>17</v>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>0.008200000000000001</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="K9" s="5">
         <v>4.8</v>
@@ -1655,12 +1718,12 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>13</v>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="5">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="C10" s="5">
         <v>32</v>
@@ -1668,23 +1731,23 @@
       <c r="D10" s="6">
         <v>318</v>
       </c>
-      <c r="E10" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s" s="7">
-        <v>17</v>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>0.0207</v>
+        <v>2.07E-2</v>
       </c>
       <c r="K10" s="5">
         <v>8.9</v>
@@ -1696,12 +1759,12 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>13</v>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="5">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C11" s="5">
         <v>32</v>
@@ -1709,23 +1772,23 @@
       <c r="D11" s="6">
         <v>318</v>
       </c>
-      <c r="E11" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s" s="7">
-        <v>17</v>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>0.0152</v>
+        <v>1.52E-2</v>
       </c>
       <c r="K11" s="5">
         <v>5.8</v>
@@ -1737,12 +1800,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>13</v>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>0.0014</v>
+        <v>1.4E-3</v>
       </c>
       <c r="C12" s="5">
         <v>32</v>
@@ -1750,23 +1813,23 @@
       <c r="D12" s="6">
         <v>318</v>
       </c>
-      <c r="E12" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s" s="7">
-        <v>17</v>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <v>0.0113</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="K12" s="5">
         <v>3.9</v>
@@ -1778,12 +1841,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>13</v>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>0.0024</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C13" s="5">
         <v>32</v>
@@ -1791,23 +1854,23 @@
       <c r="D13" s="6">
         <v>318</v>
       </c>
-      <c r="E13" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s" s="7">
-        <v>17</v>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>0.008200000000000001</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="K13" s="5">
         <v>9</v>
@@ -1819,12 +1882,12 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>13</v>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C14" s="5">
         <v>32</v>
@@ -1832,26 +1895,26 @@
       <c r="D14" s="6">
         <v>318</v>
       </c>
-      <c r="E14" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s" s="7">
-        <v>17</v>
+      <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="8">
         <v>1</v>
       </c>
       <c r="J14" s="5">
-        <v>0.0046</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="K14" s="5">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="L14" s="5">
         <v>41.9</v>
@@ -1860,12 +1923,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>13</v>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="5">
-        <v>0.0055</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C15" s="5">
         <v>32</v>
@@ -1873,40 +1936,40 @@
       <c r="D15" s="6">
         <v>318</v>
       </c>
-      <c r="E15" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s" s="7">
-        <v>17</v>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I15" s="8">
         <v>1</v>
       </c>
       <c r="J15" s="5">
-        <v>0.0058</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="K15" s="5">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="L15" s="5">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M15" s="5">
         <v>57.4</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>13</v>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="9">
-        <v>0.0014</v>
+        <v>1.4E-3</v>
       </c>
       <c r="C16" s="5">
         <v>60</v>
@@ -1914,23 +1977,23 @@
       <c r="D16" s="6">
         <v>318</v>
       </c>
-      <c r="E16" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s" s="7">
-        <v>17</v>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I16" s="8">
         <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="K16" s="5">
         <v>4.8</v>
@@ -1939,15 +2002,15 @@
         <v>6.9</v>
       </c>
       <c r="M16" s="5">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>13</v>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="C17" s="5">
         <v>60</v>
@@ -1955,23 +2018,23 @@
       <c r="D17" s="6">
         <v>318</v>
       </c>
-      <c r="E17" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s" s="7">
-        <v>17</v>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
       </c>
       <c r="J17" s="5">
-        <v>0.0167</v>
+        <v>1.67E-2</v>
       </c>
       <c r="K17" s="5">
         <v>7.5</v>
@@ -1983,12 +2046,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>13</v>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B18" s="5">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C18" s="5">
         <v>60</v>
@@ -1996,23 +2059,23 @@
       <c r="D18" s="6">
         <v>318</v>
       </c>
-      <c r="E18" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s" s="7">
-        <v>17</v>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <v>0.0097</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="K18" s="5">
         <v>10.7</v>
@@ -2024,12 +2087,12 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>13</v>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B19" s="5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C19" s="5">
         <v>60</v>
@@ -2037,23 +2100,23 @@
       <c r="D19" s="6">
         <v>318</v>
       </c>
-      <c r="E19" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s" s="7">
-        <v>17</v>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
       </c>
       <c r="J19" s="5">
-        <v>0.0129</v>
+        <v>1.29E-2</v>
       </c>
       <c r="K19" s="5">
         <v>5.4</v>
@@ -2065,12 +2128,12 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>13</v>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B20" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="C20" s="5">
         <v>120</v>
@@ -2078,23 +2141,23 @@
       <c r="D20" s="6">
         <v>318</v>
       </c>
-      <c r="E20" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s" s="7">
-        <v>17</v>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I20" s="8">
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>0.0288</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K20" s="5">
         <v>6.3</v>
@@ -2106,12 +2169,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>13</v>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="5">
-        <v>0.0055</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C21" s="5">
         <v>120</v>
@@ -2119,23 +2182,23 @@
       <c r="D21" s="6">
         <v>318</v>
       </c>
-      <c r="E21" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s" s="7">
-        <v>17</v>
+      <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I21" s="8">
         <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>0.0127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="K21" s="5">
         <v>21.2</v>
@@ -2147,9 +2210,9 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>13</v>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B22" s="5">
         <v>0.01</v>
@@ -2160,23 +2223,23 @@
       <c r="D22" s="6">
         <v>318</v>
       </c>
-      <c r="E22" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s" s="7">
-        <v>17</v>
+      <c r="E22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>0.0149</v>
+        <v>1.49E-2</v>
       </c>
       <c r="K22" s="5">
         <v>20.5</v>
@@ -2188,12 +2251,12 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>13</v>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C23" s="5">
         <v>200</v>
@@ -2201,23 +2264,23 @@
       <c r="D23" s="6">
         <v>318</v>
       </c>
-      <c r="E23" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s" s="7">
-        <v>17</v>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
       </c>
       <c r="J23" s="5">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="K23" s="5">
         <v>3.8</v>
@@ -2229,12 +2292,12 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>13</v>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B24" s="5">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C24" s="5">
         <v>200</v>
@@ -2242,23 +2305,23 @@
       <c r="D24" s="6">
         <v>318</v>
       </c>
-      <c r="E24" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s" s="7">
-        <v>17</v>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
       </c>
       <c r="J24" s="5">
-        <v>0.0123</v>
+        <v>1.23E-2</v>
       </c>
       <c r="K24" s="5">
         <v>9.5</v>
@@ -2270,12 +2333,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>13</v>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B25" s="9">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C25" s="5">
         <v>350</v>
@@ -2283,26 +2346,26 @@
       <c r="D25" s="6">
         <v>318</v>
       </c>
-      <c r="E25" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s" s="7">
-        <v>17</v>
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I25" s="8">
         <v>1</v>
       </c>
       <c r="J25" s="5">
-        <v>0.0138</v>
+        <v>1.38E-2</v>
       </c>
       <c r="K25" s="5">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L25" s="5">
         <v>26.2</v>
@@ -2311,12 +2374,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>13</v>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B26" s="5">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C26" s="5">
         <v>650</v>
@@ -2324,23 +2387,23 @@
       <c r="D26" s="6">
         <v>318</v>
       </c>
-      <c r="E26" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s" s="7">
-        <v>17</v>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I26" s="8">
         <v>1</v>
       </c>
       <c r="J26" s="5">
-        <v>0.0164</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="K26" s="5">
         <v>8.1</v>
@@ -2352,12 +2415,12 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <v>13</v>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="5">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C27" s="5">
         <v>650</v>
@@ -2365,37 +2428,37 @@
       <c r="D27" s="6">
         <v>318</v>
       </c>
-      <c r="E27" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s" s="7">
-        <v>17</v>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
       </c>
       <c r="J27" s="5">
-        <v>0.0103</v>
+        <v>1.03E-2</v>
       </c>
       <c r="K27" s="5">
         <v>8.1</v>
       </c>
       <c r="L27" s="5">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M27" s="5">
         <v>14.6</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>13</v>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B28" s="5">
         <v>0.05</v>
@@ -2406,23 +2469,23 @@
       <c r="D28" s="6">
         <v>318</v>
       </c>
-      <c r="E28" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s" s="7">
-        <v>17</v>
+      <c r="E28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I28" s="8">
         <v>1</v>
       </c>
       <c r="J28" s="5">
-        <v>0.0052</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="K28" s="5">
         <v>30.6</v>
@@ -2435,8 +2498,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/dataframe/10038.xlsx
+++ b/data/dataframe/10038.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C9A04D-434B-0644-9ABB-F4B5FF0953E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B039F3-C581-D147-A49A-3D1D3B52377C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
